--- a/Task-1_Data_Extraction_and_Initial_Analysis/10K_Fillings.xlsx
+++ b/Task-1_Data_Extraction_and_Initial_Analysis/10K_Fillings.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t xml:space="preserve">Company Name</t>
   </si>
@@ -46,145 +46,10 @@
     <t xml:space="preserve">Microsoft</t>
   </si>
   <si>
-    <t xml:space="preserve">$245122M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$88136M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$512763M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$243686M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$118548M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$211915M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$72361M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$411976M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$205753M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$87582M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$198270M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$72738M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$364840M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$198298M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$89035M</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tesla</t>
   </si>
   <si>
-    <t xml:space="preserve">$96773M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$14974M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$106618M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$43009M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$13256M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$81462M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$12556M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$82338M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$36440M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$14724M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$53823M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$5519M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$62131M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$30548M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$11497M</t>
-  </si>
-  <si>
     <t xml:space="preserve">Apple</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$391035M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$93736M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$364980M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$308030M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$118254M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$383285M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$96995M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$352583M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$290437M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$110543M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$394328M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$99803M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$352755M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$302083M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$122151M</t>
   </si>
 </sst>
 </file>
@@ -259,16 +124,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -398,7 +259,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -433,20 +294,20 @@
       <c r="B2" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
+      <c r="C2" s="1" t="n">
+        <v>245122</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>88136</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>512763</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>243686</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>118548</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -456,20 +317,20 @@
       <c r="B3" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
+      <c r="C3" s="1" t="n">
+        <v>211915</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>72361</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>411976</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>205753</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>87582</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -479,158 +340,158 @@
       <c r="B4" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>22</v>
+      <c r="C4" s="1" t="n">
+        <v>198270</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>72738</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>364840</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>198298</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>89035</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>28</v>
+      <c r="C5" s="1" t="n">
+        <v>96773</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>14974</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>106618</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>43009</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>13256</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>33</v>
+      <c r="C6" s="1" t="n">
+        <v>81462</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>12556</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>82338</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>36440</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>14724</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>38</v>
+      <c r="C7" s="1" t="n">
+        <v>53823</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>5519</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>62131</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>30548</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>11497</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>44</v>
+      <c r="C8" s="1" t="n">
+        <v>391035</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>93736</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>364980</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>308030</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>118254</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>49</v>
+      <c r="C9" s="1" t="n">
+        <v>383285</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>96995</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>352583</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>290437</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>110543</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>54</v>
+      <c r="C10" s="1" t="n">
+        <v>394328</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>99803</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>352755</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>302083</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>122151</v>
       </c>
     </row>
   </sheetData>
